--- a/Sample-Sales-Data.xlsx
+++ b/Sample-Sales-Data.xlsx
@@ -1,24 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585"/>
+    <workbookView xWindow="4240" yWindow="500" windowWidth="19040" windowHeight="15160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$391</definedName>
-    <definedName name="SalesData">Sheet1!$A$1:$E$391</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$389</definedName>
+    <definedName name="SalesData">Sheet1!$A$1:$E$389</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="138">
   <si>
     <t>2000</t>
   </si>
@@ -441,7 +446,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -573,6 +578,22 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -875,7 +896,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -918,6 +939,8 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -926,7 +949,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="44">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -955,11 +978,13 @@
     <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
     <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
     <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8" hidden="1"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -1267,25 +1292,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E391"/>
+  <dimension ref="A1:E390"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A366" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A381" sqref="A381:XFD381"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" hidden="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" hidden="1"/>
+    <col min="1" max="1" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.1640625" hidden="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.1640625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>130</v>
       </c>
@@ -1302,7 +1327,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="4" t="s">
         <v>70</v>
       </c>
@@ -1319,7 +1344,7 @@
         <v>84219.497310686638</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="4" t="s">
         <v>54</v>
       </c>
@@ -1336,7 +1361,7 @@
         <v>28322.192267852119</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="4" t="s">
         <v>74</v>
       </c>
@@ -1353,7 +1378,7 @@
         <v>81878.997241441728</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="4" t="s">
         <v>49</v>
       </c>
@@ -1370,7 +1395,7 @@
         <v>44491.142121086457</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="4" t="s">
         <v>79</v>
       </c>
@@ -1387,7 +1412,7 @@
         <v>71837.720959189814</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="4" t="s">
         <v>95</v>
       </c>
@@ -1404,7 +1429,7 @@
         <v>64531.549253970232</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="4" t="s">
         <v>55</v>
       </c>
@@ -1421,7 +1446,7 @@
         <v>58962.639831844943</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="4" t="s">
         <v>28</v>
       </c>
@@ -1438,7 +1463,7 @@
         <v>27521.791964290431</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="4" t="s">
         <v>109</v>
       </c>
@@ -1455,7 +1480,7 @@
         <v>77985.126101154892</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="4" t="s">
         <v>29</v>
       </c>
@@ -1472,7 +1497,7 @@
         <v>49546.123316538571</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="4" t="s">
         <v>14</v>
       </c>
@@ -1489,7 +1514,7 @@
         <v>17733.774599635875</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="4" t="s">
         <v>31</v>
       </c>
@@ -1506,7 +1531,7 @@
         <v>91125.995923056413</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" s="4" t="s">
         <v>53</v>
       </c>
@@ -1523,7 +1548,7 @@
         <v>48112.764779075267</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15" s="4" t="s">
         <v>64</v>
       </c>
@@ -1540,7 +1565,7 @@
         <v>28361.33839080076</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" s="4" t="s">
         <v>84</v>
       </c>
@@ -1557,7 +1582,7 @@
         <v>50911.554904745972</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" s="4" t="s">
         <v>38</v>
       </c>
@@ -1574,7 +1599,7 @@
         <v>75538.869740901355</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18" s="4" t="s">
         <v>35</v>
       </c>
@@ -1591,7 +1616,7 @@
         <v>96922.328344729191</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19" s="4" t="s">
         <v>113</v>
       </c>
@@ -1608,7 +1633,7 @@
         <v>57838.17502367252</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="A20" s="4" t="s">
         <v>0</v>
       </c>
@@ -1625,7 +1650,7 @@
         <v>4529.7485636333286</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="A21" s="4" t="s">
         <v>80</v>
       </c>
@@ -1642,7 +1667,7 @@
         <v>27761.119322440096</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5">
       <c r="A22" s="4" t="s">
         <v>65</v>
       </c>
@@ -1659,7 +1684,7 @@
         <v>22772.698377885881</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5">
       <c r="A23" s="4" t="s">
         <v>21</v>
       </c>
@@ -1676,7 +1701,7 @@
         <v>98780.16287428583</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5">
       <c r="A24" s="4" t="s">
         <v>44</v>
       </c>
@@ -1693,7 +1718,7 @@
         <v>66043.702355874731</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5">
       <c r="A25" s="4" t="s">
         <v>69</v>
       </c>
@@ -1710,7 +1735,7 @@
         <v>32882.27483888877</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5">
       <c r="A26" s="4" t="s">
         <v>36</v>
       </c>
@@ -1727,7 +1752,7 @@
         <v>75822.406617070985</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5">
       <c r="A27" s="4" t="s">
         <v>48</v>
       </c>
@@ -1744,7 +1769,7 @@
         <v>36675.400390808165</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5">
       <c r="A28" s="4" t="s">
         <v>31</v>
       </c>
@@ -1761,7 +1786,7 @@
         <v>95816.702886788757</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5">
       <c r="A29" s="4" t="s">
         <v>128</v>
       </c>
@@ -1778,7 +1803,7 @@
         <v>43627.20041202999</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5">
       <c r="A30" s="4" t="s">
         <v>114</v>
       </c>
@@ -1795,7 +1820,7 @@
         <v>93306.119892407529</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5">
       <c r="A31" s="4" t="s">
         <v>36</v>
       </c>
@@ -1812,7 +1837,7 @@
         <v>71321.531951580851</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5">
       <c r="A32" s="4" t="s">
         <v>28</v>
       </c>
@@ -1829,7 +1854,7 @@
         <v>92022.656223458893</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5">
       <c r="A33" s="4" t="s">
         <v>68</v>
       </c>
@@ -1846,7 +1871,7 @@
         <v>40654.841192980639</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5">
       <c r="A34" s="4" t="s">
         <v>82</v>
       </c>
@@ -1863,7 +1888,7 @@
         <v>95517.979687463172</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5">
       <c r="A35" s="4" t="s">
         <v>10</v>
       </c>
@@ -1880,7 +1905,7 @@
         <v>24550.372817471634</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5">
       <c r="A36" s="4" t="s">
         <v>30</v>
       </c>
@@ -1897,7 +1922,7 @@
         <v>65165.632575414878</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5">
       <c r="A37" s="4" t="s">
         <v>2</v>
       </c>
@@ -1914,7 +1939,7 @@
         <v>52575.682647052359</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5">
       <c r="A38" s="4" t="s">
         <v>84</v>
       </c>
@@ -1931,7 +1956,7 @@
         <v>2355.6015708139143</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5">
       <c r="A39" s="4" t="s">
         <v>16</v>
       </c>
@@ -1948,7 +1973,7 @@
         <v>11444.418217618491</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5">
       <c r="A40" s="4" t="s">
         <v>61</v>
       </c>
@@ -1965,7 +1990,7 @@
         <v>30569.124856117814</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5">
       <c r="A41" s="4" t="s">
         <v>82</v>
       </c>
@@ -1982,7 +2007,7 @@
         <v>83085.264142901753</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5">
       <c r="A42" s="4" t="s">
         <v>97</v>
       </c>
@@ -1999,7 +2024,7 @@
         <v>82490.328207309605</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5">
       <c r="A43" s="4" t="s">
         <v>43</v>
       </c>
@@ -2016,7 +2041,7 @@
         <v>23819.26749380253</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5">
       <c r="A44" s="4" t="s">
         <v>60</v>
       </c>
@@ -2033,7 +2058,7 @@
         <v>60571.092290026616</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5">
       <c r="A45" s="4" t="s">
         <v>21</v>
       </c>
@@ -2050,7 +2075,7 @@
         <v>81537.510415725847</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5">
       <c r="A46" s="4" t="s">
         <v>24</v>
       </c>
@@ -2067,7 +2092,7 @@
         <v>51840.472873702245</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5">
       <c r="A47" s="4" t="s">
         <v>5</v>
       </c>
@@ -2084,7 +2109,7 @@
         <v>8501.9372860340773</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5">
       <c r="A48" s="4" t="s">
         <v>85</v>
       </c>
@@ -2101,7 +2126,7 @@
         <v>41609.578826193509</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5">
       <c r="A49" s="4" t="s">
         <v>100</v>
       </c>
@@ -2118,7 +2143,7 @@
         <v>10062.749354246325</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5">
       <c r="A50" s="4" t="s">
         <v>35</v>
       </c>
@@ -2135,7 +2160,7 @@
         <v>87702.153933134046</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5">
       <c r="A51" s="4" t="s">
         <v>50</v>
       </c>
@@ -2152,7 +2177,7 @@
         <v>99436.424098368385</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5">
       <c r="A52" s="4" t="s">
         <v>21</v>
       </c>
@@ -2169,7 +2194,7 @@
         <v>88957.415557573913</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5">
       <c r="A53" s="4" t="s">
         <v>112</v>
       </c>
@@ -2186,7 +2211,7 @@
         <v>18845.79969887633</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5">
       <c r="A54" s="4" t="s">
         <v>109</v>
       </c>
@@ -2203,7 +2228,7 @@
         <v>70963.433089109545</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5">
       <c r="A55" s="4" t="s">
         <v>63</v>
       </c>
@@ -2220,7 +2245,7 @@
         <v>45570.896382961313</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5">
       <c r="A56" s="4" t="s">
         <v>119</v>
       </c>
@@ -2237,7 +2262,7 @@
         <v>12148.011126511827</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5">
       <c r="A57" s="4" t="s">
         <v>78</v>
       </c>
@@ -2254,7 +2279,7 @@
         <v>30271.678866607366</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5">
       <c r="A58" s="4" t="s">
         <v>97</v>
       </c>
@@ -2271,7 +2296,7 @@
         <v>62744.464274710153</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5">
       <c r="A59" s="4" t="s">
         <v>51</v>
       </c>
@@ -2288,7 +2313,7 @@
         <v>106.36059923672114</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5">
       <c r="A60" s="4" t="s">
         <v>41</v>
       </c>
@@ -2305,7 +2330,7 @@
         <v>30814.616270255603</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5">
       <c r="A61" s="4" t="s">
         <v>2</v>
       </c>
@@ -2322,7 +2347,7 @@
         <v>89093.232630376689</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5">
       <c r="A62" s="4" t="s">
         <v>82</v>
       </c>
@@ -2339,7 +2364,7 @@
         <v>22747.961623187053</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5">
       <c r="A63" s="4" t="s">
         <v>95</v>
       </c>
@@ -2356,7 +2381,7 @@
         <v>8396.1654014376491</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5">
       <c r="A64" s="4" t="s">
         <v>7</v>
       </c>
@@ -2373,7 +2398,7 @@
         <v>64710.891303897501</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5">
       <c r="A65" s="4" t="s">
         <v>59</v>
       </c>
@@ -2390,7 +2415,7 @@
         <v>25131.04047149558</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5">
       <c r="A66" s="4" t="s">
         <v>26</v>
       </c>
@@ -2407,7 +2432,7 @@
         <v>79000.9855093238</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5">
       <c r="A67" s="4" t="s">
         <v>22</v>
       </c>
@@ -2424,7 +2449,7 @@
         <v>32183.53011658488</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5">
       <c r="A68" s="4" t="s">
         <v>30</v>
       </c>
@@ -2441,7 +2466,7 @@
         <v>72567.41536511248</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5">
       <c r="A69" s="4" t="s">
         <v>101</v>
       </c>
@@ -2458,7 +2483,7 @@
         <v>18507.612866205625</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5">
       <c r="A70" s="4" t="s">
         <v>114</v>
       </c>
@@ -2475,7 +2500,7 @@
         <v>69530.674982247772</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5">
       <c r="A71" s="4" t="s">
         <v>117</v>
       </c>
@@ -2492,7 +2517,7 @@
         <v>63821.532395840586</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5">
       <c r="A72" s="4" t="s">
         <v>101</v>
       </c>
@@ -2509,7 +2534,7 @@
         <v>80225.251555580297</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5">
       <c r="A73" s="4" t="s">
         <v>77</v>
       </c>
@@ -2526,7 +2551,7 @@
         <v>33048.102091696361</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5">
       <c r="A74" s="4" t="s">
         <v>89</v>
       </c>
@@ -2543,7 +2568,7 @@
         <v>36420.784858795021</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5">
       <c r="A75" s="4" t="s">
         <v>117</v>
       </c>
@@ -2560,7 +2585,7 @@
         <v>73725.466859741602</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5">
       <c r="A76" s="4" t="s">
         <v>38</v>
       </c>
@@ -2577,7 +2602,7 @@
         <v>30811.273740655564</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5">
       <c r="A77" s="4" t="s">
         <v>79</v>
       </c>
@@ -2594,7 +2619,7 @@
         <v>33404.176079906203</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5">
       <c r="A78" s="4" t="s">
         <v>61</v>
       </c>
@@ -2611,7 +2636,7 @@
         <v>60876.160544879524</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5">
       <c r="A79" s="4" t="s">
         <v>98</v>
       </c>
@@ -2628,7 +2653,7 @@
         <v>37753.5923529457</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5">
       <c r="A80" s="4" t="s">
         <v>3</v>
       </c>
@@ -2645,7 +2670,7 @@
         <v>22852.592831238118</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5">
       <c r="A81" s="4" t="s">
         <v>106</v>
       </c>
@@ -2662,7 +2687,7 @@
         <v>5535.1207927691439</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5">
       <c r="A82" s="4" t="s">
         <v>18</v>
       </c>
@@ -2679,7 +2704,7 @@
         <v>42456.158714009929</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5">
       <c r="A83" s="4" t="s">
         <v>110</v>
       </c>
@@ -2696,7 +2721,7 @@
         <v>91203.868179025143</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5">
       <c r="A84" s="4" t="s">
         <v>44</v>
       </c>
@@ -2713,7 +2738,7 @@
         <v>3037.8280775409717</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5">
       <c r="A85" s="4" t="s">
         <v>3</v>
       </c>
@@ -2730,7 +2755,7 @@
         <v>85746.836965600538</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5">
       <c r="A86" s="4" t="s">
         <v>29</v>
       </c>
@@ -2747,7 +2772,7 @@
         <v>81012.6448839886</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5">
       <c r="A87" s="4" t="s">
         <v>32</v>
       </c>
@@ -2764,7 +2789,7 @@
         <v>6258.7259979762221</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5">
       <c r="A88" s="4" t="s">
         <v>116</v>
       </c>
@@ -2781,7 +2806,7 @@
         <v>80519.245962771805</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5">
       <c r="A89" s="4" t="s">
         <v>33</v>
       </c>
@@ -2798,7 +2823,7 @@
         <v>79289.636132605461</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5">
       <c r="A90" s="4" t="s">
         <v>64</v>
       </c>
@@ -2815,7 +2840,7 @@
         <v>69906.093654739467</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5">
       <c r="A91" s="4" t="s">
         <v>27</v>
       </c>
@@ -2832,7 +2857,7 @@
         <v>57233.0455837431</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5">
       <c r="A92" s="4" t="s">
         <v>12</v>
       </c>
@@ -2849,7 +2874,7 @@
         <v>77797.631978400605</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5">
       <c r="A93" s="4" t="s">
         <v>56</v>
       </c>
@@ -2866,7 +2891,7 @@
         <v>42384.026018605029</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5">
       <c r="A94" s="4" t="s">
         <v>11</v>
       </c>
@@ -2883,7 +2908,7 @@
         <v>39846.843322659166</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5">
       <c r="A95" s="4" t="s">
         <v>15</v>
       </c>
@@ -2900,7 +2925,7 @@
         <v>36794.362282293594</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5">
       <c r="A96" s="4" t="s">
         <v>1</v>
       </c>
@@ -2917,7 +2942,7 @@
         <v>10189.734579916543</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5">
       <c r="A97" s="4" t="s">
         <v>40</v>
       </c>
@@ -2934,7 +2959,7 @@
         <v>52484.354053693016</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5">
       <c r="A98" s="4" t="s">
         <v>12</v>
       </c>
@@ -2951,7 +2976,7 @@
         <v>12962.727566952781</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5">
       <c r="A99" s="4" t="s">
         <v>72</v>
       </c>
@@ -2968,7 +2993,7 @@
         <v>79116.223238541745</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5">
       <c r="A100" s="4" t="s">
         <v>46</v>
       </c>
@@ -2985,7 +3010,7 @@
         <v>16574.309480741656</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5">
       <c r="A101" s="4" t="s">
         <v>54</v>
       </c>
@@ -3002,7 +3027,7 @@
         <v>27554.227014500222</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5">
       <c r="A102" s="4" t="s">
         <v>26</v>
       </c>
@@ -3019,7 +3044,7 @@
         <v>37596.895379031826</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5">
       <c r="A103" s="4" t="s">
         <v>58</v>
       </c>
@@ -3036,7 +3061,7 @@
         <v>59561.966968642577</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5">
       <c r="A104" s="4" t="s">
         <v>127</v>
       </c>
@@ -3053,7 +3078,7 @@
         <v>59035.398543713069</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5">
       <c r="A105" s="4" t="s">
         <v>111</v>
       </c>
@@ -3070,7 +3095,7 @@
         <v>36867.580546477097</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5">
       <c r="A106" s="4" t="s">
         <v>59</v>
       </c>
@@ -3087,7 +3112,7 @@
         <v>1839.2716659866637</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5">
       <c r="A107" s="4" t="s">
         <v>99</v>
       </c>
@@ -3104,7 +3129,7 @@
         <v>97072.381715961237</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5">
       <c r="A108" s="4" t="s">
         <v>93</v>
       </c>
@@ -3121,7 +3146,7 @@
         <v>16913.651171743495</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5">
       <c r="A109" s="4" t="s">
         <v>34</v>
       </c>
@@ -3138,7 +3163,7 @@
         <v>49052.82970883602</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5">
       <c r="A110" s="4" t="s">
         <v>19</v>
       </c>
@@ -3155,7 +3180,7 @@
         <v>19846.883991005769</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5">
       <c r="A111" s="4" t="s">
         <v>55</v>
       </c>
@@ -3172,7 +3197,7 @@
         <v>33781.367374536909</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5">
       <c r="A112" s="4" t="s">
         <v>73</v>
       </c>
@@ -3189,7 +3214,7 @@
         <v>18870.257553301217</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5">
       <c r="A113" s="4" t="s">
         <v>93</v>
       </c>
@@ -3206,7 +3231,7 @@
         <v>68070.838991547978</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5">
       <c r="A114" s="4" t="s">
         <v>69</v>
       </c>
@@ -3223,7 +3248,7 @@
         <v>51034.178948263376</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5">
       <c r="A115" s="4" t="s">
         <v>120</v>
       </c>
@@ -3240,7 +3265,7 @@
         <v>64900.638948952881</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5">
       <c r="A116" s="4" t="s">
         <v>18</v>
       </c>
@@ -3257,7 +3282,7 @@
         <v>47447.736598125353</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5">
       <c r="A117" s="4" t="s">
         <v>24</v>
       </c>
@@ -3274,7 +3299,7 @@
         <v>16708.103196930089</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5">
       <c r="A118" s="4" t="s">
         <v>32</v>
       </c>
@@ -3291,7 +3316,7 @@
         <v>63444.124316503337</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5">
       <c r="A119" s="4" t="s">
         <v>46</v>
       </c>
@@ -3308,7 +3333,7 @@
         <v>62105.740291232483</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5">
       <c r="A120" s="4" t="s">
         <v>52</v>
       </c>
@@ -3325,7 +3350,7 @@
         <v>9348.4056384221312</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5">
       <c r="A121" s="4" t="s">
         <v>125</v>
       </c>
@@ -3342,7 +3367,7 @@
         <v>2676.2352124329868</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5">
       <c r="A122" s="4" t="s">
         <v>67</v>
       </c>
@@ -3359,7 +3384,7 @@
         <v>12347.61414685932</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5">
       <c r="A123" s="4" t="s">
         <v>123</v>
       </c>
@@ -3376,7 +3401,7 @@
         <v>95787.28065217784</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5">
       <c r="A124" s="4" t="s">
         <v>83</v>
       </c>
@@ -3393,7 +3418,7 @@
         <v>28464.940899010671</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5">
       <c r="A125" s="4" t="s">
         <v>65</v>
       </c>
@@ -3410,7 +3435,7 @@
         <v>28357.643769795228</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5">
       <c r="A126" s="4" t="s">
         <v>107</v>
       </c>
@@ -3427,7 +3452,7 @@
         <v>66107.220857533292</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5">
       <c r="A127" s="4" t="s">
         <v>55</v>
       </c>
@@ -3444,7 +3469,7 @@
         <v>69062.212175783308</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5">
       <c r="A128" s="4" t="s">
         <v>129</v>
       </c>
@@ -3461,7 +3486,7 @@
         <v>9997.426571521195</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5">
       <c r="A129" s="4" t="s">
         <v>44</v>
       </c>
@@ -3478,7 +3503,7 @@
         <v>13716.291588349293</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5">
       <c r="A130" s="4" t="s">
         <v>81</v>
       </c>
@@ -3495,7 +3520,7 @@
         <v>8606.7696143704688</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5">
       <c r="A131" s="4" t="s">
         <v>122</v>
       </c>
@@ -3512,7 +3537,7 @@
         <v>31429.999168744449</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5">
       <c r="A132" s="4" t="s">
         <v>106</v>
       </c>
@@ -3529,7 +3554,7 @@
         <v>74718.738347519771</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5">
       <c r="A133" s="4" t="s">
         <v>79</v>
       </c>
@@ -3546,7 +3571,7 @@
         <v>28813.604718758168</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5">
       <c r="A134" s="4" t="s">
         <v>105</v>
       </c>
@@ -3563,7 +3588,7 @@
         <v>11588.850837528153</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5">
       <c r="A135" s="4" t="s">
         <v>8</v>
       </c>
@@ -3580,7 +3605,7 @@
         <v>15791.913741150011</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5">
       <c r="A136" s="4" t="s">
         <v>71</v>
       </c>
@@ -3597,7 +3622,7 @@
         <v>62984.253562071412</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5">
       <c r="A137" s="4" t="s">
         <v>42</v>
       </c>
@@ -3614,7 +3639,7 @@
         <v>12902.062255146995</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5">
       <c r="A138" s="4" t="s">
         <v>112</v>
       </c>
@@ -3631,7 +3656,7 @@
         <v>68656.959311105093</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5">
       <c r="A139" s="4" t="s">
         <v>126</v>
       </c>
@@ -3648,7 +3673,7 @@
         <v>44106.483044701105</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5">
       <c r="A140" s="4" t="s">
         <v>70</v>
       </c>
@@ -3665,7 +3690,7 @@
         <v>5490.6963603684189</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5">
       <c r="A141" s="4" t="s">
         <v>84</v>
       </c>
@@ -3682,7 +3707,7 @@
         <v>78419.449947613612</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5">
       <c r="A142" s="4" t="s">
         <v>67</v>
       </c>
@@ -3699,7 +3724,7 @@
         <v>4380.4628196412623</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5">
       <c r="A143" s="4" t="s">
         <v>58</v>
       </c>
@@ -3716,7 +3741,7 @@
         <v>70422.384970006373</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5">
       <c r="A144" s="4" t="s">
         <v>95</v>
       </c>
@@ -3733,7 +3758,7 @@
         <v>18158.745169784484</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5">
       <c r="A145" s="4" t="s">
         <v>27</v>
       </c>
@@ -3750,7 +3775,7 @@
         <v>11742.648585472693</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5">
       <c r="A146" s="4" t="s">
         <v>73</v>
       </c>
@@ -3767,7 +3792,7 @@
         <v>11934.393831965184</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5">
       <c r="A147" s="4" t="s">
         <v>74</v>
       </c>
@@ -3784,7 +3809,7 @@
         <v>95799.189866278684</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5">
       <c r="A148" s="4" t="s">
         <v>22</v>
       </c>
@@ -3801,7 +3826,7 @@
         <v>36756.009738375258</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5">
       <c r="A149" s="4" t="s">
         <v>99</v>
       </c>
@@ -3818,7 +3843,7 @@
         <v>47446.990901387173</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5">
       <c r="A150" s="4" t="s">
         <v>78</v>
       </c>
@@ -3835,7 +3860,7 @@
         <v>41256.421627935422</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5">
       <c r="A151" s="4" t="s">
         <v>100</v>
       </c>
@@ -3852,7 +3877,7 @@
         <v>2676.1971061516565</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5">
       <c r="A152" s="4" t="s">
         <v>80</v>
       </c>
@@ -3869,7 +3894,7 @@
         <v>94181.764912922357</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5">
       <c r="A153" s="4" t="s">
         <v>66</v>
       </c>
@@ -3886,7 +3911,7 @@
         <v>49807.617838596132</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5">
       <c r="A154" s="4" t="s">
         <v>86</v>
       </c>
@@ -3903,7 +3928,7 @@
         <v>22950.236571110305</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5">
       <c r="A155" s="4" t="s">
         <v>86</v>
       </c>
@@ -3920,7 +3945,7 @@
         <v>54905.611361300478</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5">
       <c r="A156" s="4" t="s">
         <v>78</v>
       </c>
@@ -3937,7 +3962,7 @@
         <v>14908.859473425473</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5">
       <c r="A157" s="4" t="s">
         <v>22</v>
       </c>
@@ -3954,7 +3979,7 @@
         <v>46114.788084427593</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5">
       <c r="A158" s="4" t="s">
         <v>63</v>
       </c>
@@ -3971,7 +3996,7 @@
         <v>81700.654001322968</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5">
       <c r="A159" s="4" t="s">
         <v>85</v>
       </c>
@@ -3988,7 +4013,7 @@
         <v>37556.347991356844</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5">
       <c r="A160" s="4" t="s">
         <v>112</v>
       </c>
@@ -4005,7 +4030,7 @@
         <v>85515.935061852142</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5">
       <c r="A161" s="4" t="s">
         <v>62</v>
       </c>
@@ -4022,7 +4047,7 @@
         <v>31843.909769082224</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5">
       <c r="A162" s="4" t="s">
         <v>23</v>
       </c>
@@ -4039,7 +4064,7 @@
         <v>49010.423521894452</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5">
       <c r="A163" s="4" t="s">
         <v>9</v>
       </c>
@@ -4056,7 +4081,7 @@
         <v>19506.389283742476</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5">
       <c r="A164" s="4" t="s">
         <v>87</v>
       </c>
@@ -4073,7 +4098,7 @@
         <v>42691.190100719075</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5">
       <c r="A165" s="4" t="s">
         <v>60</v>
       </c>
@@ -4090,7 +4115,7 @@
         <v>28370.053628432914</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5">
       <c r="A166" s="4" t="s">
         <v>27</v>
       </c>
@@ -4107,7 +4132,7 @@
         <v>26093.57086307136</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5">
       <c r="A167" s="4" t="s">
         <v>129</v>
       </c>
@@ -4124,7 +4149,7 @@
         <v>48260.123161592761</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5">
       <c r="A168" s="4" t="s">
         <v>108</v>
       </c>
@@ -4141,7 +4166,7 @@
         <v>95119.044085736663</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5">
       <c r="A169" s="4" t="s">
         <v>36</v>
       </c>
@@ -4158,7 +4183,7 @@
         <v>53020.162934792002</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5">
       <c r="A170" s="4" t="s">
         <v>109</v>
       </c>
@@ -4175,7 +4200,7 @@
         <v>10618.600611133534</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5">
       <c r="A171" s="4" t="s">
         <v>102</v>
       </c>
@@ -4192,7 +4217,7 @@
         <v>59382.061549838618</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5">
       <c r="A172" s="4" t="s">
         <v>33</v>
       </c>
@@ -4209,7 +4234,7 @@
         <v>1125.8001132970596</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5">
       <c r="A173" s="4" t="s">
         <v>4</v>
       </c>
@@ -4226,7 +4251,7 @@
         <v>40301.191560298786</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5">
       <c r="A174" s="4" t="s">
         <v>88</v>
       </c>
@@ -4243,7 +4268,7 @@
         <v>43403.377906255249</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5">
       <c r="A175" s="4" t="s">
         <v>85</v>
       </c>
@@ -4260,7 +4285,7 @@
         <v>74226.012466441025</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5">
       <c r="A176" s="4" t="s">
         <v>115</v>
       </c>
@@ -4277,7 +4302,7 @@
         <v>1425.1195353387259</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5">
       <c r="A177" s="4" t="s">
         <v>47</v>
       </c>
@@ -4294,7 +4319,7 @@
         <v>5591.7222522588127</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5">
       <c r="A178" s="4" t="s">
         <v>57</v>
       </c>
@@ -4311,7 +4336,7 @@
         <v>55937.300077083441</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5">
       <c r="A179" s="4" t="s">
         <v>13</v>
       </c>
@@ -4328,7 +4353,7 @@
         <v>12638.14459949577</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5">
       <c r="A180" s="4" t="s">
         <v>88</v>
       </c>
@@ -4345,7 +4370,7 @@
         <v>98510.590242804828</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5">
       <c r="A181" s="4" t="s">
         <v>61</v>
       </c>
@@ -4362,7 +4387,7 @@
         <v>73319.16633859805</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5">
       <c r="A182" s="4" t="s">
         <v>30</v>
       </c>
@@ -4379,7 +4404,7 @@
         <v>59482.586260971308</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5">
       <c r="A183" s="4" t="s">
         <v>98</v>
       </c>
@@ -4396,7 +4421,7 @@
         <v>45309.261094337904</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5">
       <c r="A184" s="4" t="s">
         <v>25</v>
       </c>
@@ -4413,7 +4438,7 @@
         <v>71497.721743438393</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5">
       <c r="A185" s="4" t="s">
         <v>128</v>
       </c>
@@ -4430,7 +4455,7 @@
         <v>32218.253551633381</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5">
       <c r="A186" s="4" t="s">
         <v>71</v>
       </c>
@@ -4447,7 +4472,7 @@
         <v>81654.545161522634</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5">
       <c r="A187" s="4" t="s">
         <v>91</v>
       </c>
@@ -4464,7 +4489,7 @@
         <v>34022.98807074091</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5">
       <c r="A188" s="4" t="s">
         <v>58</v>
       </c>
@@ -4481,7 +4506,7 @@
         <v>9781.5687305079937</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5">
       <c r="A189" s="4" t="s">
         <v>20</v>
       </c>
@@ -4498,7 +4523,7 @@
         <v>96342.987533182037</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5">
       <c r="A190" s="4" t="s">
         <v>5</v>
       </c>
@@ -4515,7 +4540,7 @@
         <v>73529.080316837964</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5">
       <c r="A191" s="4" t="s">
         <v>56</v>
       </c>
@@ -4532,7 +4557,7 @@
         <v>90268.046465484018</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5">
       <c r="A192" s="4" t="s">
         <v>62</v>
       </c>
@@ -4549,7 +4574,7 @@
         <v>51309.631652966127</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5">
       <c r="A193" s="4" t="s">
         <v>127</v>
       </c>
@@ -4566,7 +4591,7 @@
         <v>45922.508674015808</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5">
       <c r="A194" s="4" t="s">
         <v>6</v>
       </c>
@@ -4583,7 +4608,7 @@
         <v>19273.593767348018</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5">
       <c r="A195" s="4" t="s">
         <v>110</v>
       </c>
@@ -4600,7 +4625,7 @@
         <v>89796.777850333383</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5">
       <c r="A196" s="4" t="s">
         <v>14</v>
       </c>
@@ -4617,7 +4642,7 @@
         <v>52643.365635197857</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5">
       <c r="A197" s="4" t="s">
         <v>17</v>
       </c>
@@ -4634,7 +4659,7 @@
         <v>39758.95861206673</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5">
       <c r="A198" s="4" t="s">
         <v>14</v>
       </c>
@@ -4651,7 +4676,7 @@
         <v>82466.094135679712</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5">
       <c r="A199" s="4" t="s">
         <v>108</v>
       </c>
@@ -4668,7 +4693,7 @@
         <v>21515.006097932153</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5">
       <c r="A200" s="4" t="s">
         <v>90</v>
       </c>
@@ -4685,7 +4710,7 @@
         <v>76683.53465770575</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5">
       <c r="A201" s="4" t="s">
         <v>1</v>
       </c>
@@ -4702,7 +4727,7 @@
         <v>18008.011875174368</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5">
       <c r="A202" s="4" t="s">
         <v>6</v>
       </c>
@@ -4719,7 +4744,7 @@
         <v>22373.581349935277</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5">
       <c r="A203" s="4" t="s">
         <v>13</v>
       </c>
@@ -4736,7 +4761,7 @@
         <v>69425.036339718266</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5">
       <c r="A204" s="4" t="s">
         <v>8</v>
       </c>
@@ -4753,7 +4778,7 @@
         <v>47308.508715500728</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5">
       <c r="A205" s="4" t="s">
         <v>116</v>
       </c>
@@ -4770,7 +4795,7 @@
         <v>54725.737529824677</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5">
       <c r="A206" s="4" t="s">
         <v>93</v>
       </c>
@@ -4787,7 +4812,7 @@
         <v>35361.140883499509</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5">
       <c r="A207" s="4" t="s">
         <v>19</v>
       </c>
@@ -4804,7 +4829,7 @@
         <v>87640.140863689026</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5">
       <c r="A208" s="4" t="s">
         <v>92</v>
       </c>
@@ -4821,7 +4846,7 @@
         <v>95989.727586729554</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5">
       <c r="A209" s="4" t="s">
         <v>126</v>
       </c>
@@ -4838,7 +4863,7 @@
         <v>95859.976034006628</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:5">
       <c r="A210" s="4" t="s">
         <v>90</v>
       </c>
@@ -4855,7 +4880,7 @@
         <v>20564.361378384576</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:5">
       <c r="A211" s="4" t="s">
         <v>31</v>
       </c>
@@ -4872,7 +4897,7 @@
         <v>429.35642483590277</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:5">
       <c r="A212" s="4" t="s">
         <v>16</v>
       </c>
@@ -4889,7 +4914,7 @@
         <v>15532.78012789937</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:5">
       <c r="A213" s="4" t="s">
         <v>4</v>
       </c>
@@ -4906,7 +4931,7 @@
         <v>35901.224413753851</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:5">
       <c r="A214" s="4" t="s">
         <v>77</v>
       </c>
@@ -4923,7 +4948,7 @@
         <v>54434.686053562466</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:5">
       <c r="A215" s="4" t="s">
         <v>119</v>
       </c>
@@ -4940,7 +4965,7 @@
         <v>33362.604382461046</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:5">
       <c r="A216" s="4" t="s">
         <v>120</v>
       </c>
@@ -4957,7 +4982,7 @@
         <v>10350.328402267094</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:5">
       <c r="A217" s="4" t="s">
         <v>57</v>
       </c>
@@ -4974,7 +4999,7 @@
         <v>29958.544115453922</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:5">
       <c r="A218" s="4" t="s">
         <v>7</v>
       </c>
@@ -4991,7 +5016,7 @@
         <v>218.99094378275973</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:5">
       <c r="A219" s="4" t="s">
         <v>47</v>
       </c>
@@ -5008,7 +5033,7 @@
         <v>68776.159613102893</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:5">
       <c r="A220" s="4" t="s">
         <v>124</v>
       </c>
@@ -5025,7 +5050,7 @@
         <v>33064.354271136333</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:5">
       <c r="A221" s="4" t="s">
         <v>35</v>
       </c>
@@ -5042,7 +5067,7 @@
         <v>89721.315160092869</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:5">
       <c r="A222" s="4" t="s">
         <v>53</v>
       </c>
@@ -5059,7 +5084,7 @@
         <v>89378.581318445547</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:5">
       <c r="A223" s="4" t="s">
         <v>10</v>
       </c>
@@ -5076,7 +5101,7 @@
         <v>64327.662066113568</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:5">
       <c r="A224" s="4" t="s">
         <v>25</v>
       </c>
@@ -5093,7 +5118,7 @@
         <v>25194.856894380548</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:5">
       <c r="A225" s="4" t="s">
         <v>20</v>
       </c>
@@ -5110,7 +5135,7 @@
         <v>67430.832880311136</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:5">
       <c r="A226" s="4" t="s">
         <v>7</v>
       </c>
@@ -5127,7 +5152,7 @@
         <v>46974.926222088121</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:5">
       <c r="A227" s="4" t="s">
         <v>18</v>
       </c>
@@ -5144,7 +5169,7 @@
         <v>92117.646851251659</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:5">
       <c r="A228" s="4" t="s">
         <v>26</v>
       </c>
@@ -5161,7 +5186,7 @@
         <v>91203.557636179452</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:5">
       <c r="A229" s="4" t="s">
         <v>37</v>
       </c>
@@ -5178,7 +5203,7 @@
         <v>85199.711576671485</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:5">
       <c r="A230" s="4" t="s">
         <v>102</v>
       </c>
@@ -5195,7 +5220,7 @@
         <v>18626.832225590028</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:5">
       <c r="A231" s="4" t="s">
         <v>119</v>
       </c>
@@ -5212,7 +5237,7 @@
         <v>52173.117724180898</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:5">
       <c r="A232" s="4" t="s">
         <v>129</v>
       </c>
@@ -5229,7 +5254,7 @@
         <v>23168.913146929237</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:5">
       <c r="A233" s="4" t="s">
         <v>91</v>
       </c>
@@ -5246,7 +5271,7 @@
         <v>12454.761273136506</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:5">
       <c r="A234" s="4" t="s">
         <v>94</v>
       </c>
@@ -5263,7 +5288,7 @@
         <v>87956.782832440105</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:5">
       <c r="A235" s="4" t="s">
         <v>53</v>
       </c>
@@ -5280,7 +5305,7 @@
         <v>41927.960606653403</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:5">
       <c r="A236" s="4" t="s">
         <v>92</v>
       </c>
@@ -5297,7 +5322,7 @@
         <v>92727.542743340673</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:5">
       <c r="A237" s="4" t="s">
         <v>123</v>
       </c>
@@ -5314,7 +5339,7 @@
         <v>42204.823360368639</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:5">
       <c r="A238" s="4" t="s">
         <v>9</v>
       </c>
@@ -5331,7 +5356,7 @@
         <v>36658.779599900437</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:5">
       <c r="A239" s="4" t="s">
         <v>121</v>
       </c>
@@ -5348,7 +5373,7 @@
         <v>34478.740494404512</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:5">
       <c r="A240" s="4" t="s">
         <v>110</v>
       </c>
@@ -5365,7 +5390,7 @@
         <v>25315.460936383548</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:5">
       <c r="A241" s="4" t="s">
         <v>0</v>
       </c>
@@ -5382,7 +5407,7 @@
         <v>83705.822128551503</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:5">
       <c r="A242" s="4" t="s">
         <v>113</v>
       </c>
@@ -5399,7 +5424,7 @@
         <v>99743.831149156977</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:5">
       <c r="A243" s="4" t="s">
         <v>29</v>
       </c>
@@ -5416,7 +5441,7 @@
         <v>63982.425650802645</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:5">
       <c r="A244" s="4" t="s">
         <v>49</v>
       </c>
@@ -5433,7 +5458,7 @@
         <v>34375.956105907957</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:5">
       <c r="A245" s="4" t="s">
         <v>70</v>
       </c>
@@ -5450,7 +5475,7 @@
         <v>54646.996186191318</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:5">
       <c r="A246" s="4" t="s">
         <v>17</v>
       </c>
@@ -5467,7 +5492,7 @@
         <v>62273.347238831266</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:5">
       <c r="A247" s="4" t="s">
         <v>89</v>
       </c>
@@ -5484,7 +5509,7 @@
         <v>23527.973222897359</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:5">
       <c r="A248" s="4" t="s">
         <v>23</v>
       </c>
@@ -5501,7 +5526,7 @@
         <v>13587.794772950334</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:5">
       <c r="A249" s="4" t="s">
         <v>17</v>
       </c>
@@ -5518,7 +5543,7 @@
         <v>31934.828348412815</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:5">
       <c r="A250" s="4" t="s">
         <v>74</v>
       </c>
@@ -5535,7 +5560,7 @@
         <v>38554.160303193617</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:5">
       <c r="A251" s="4" t="s">
         <v>39</v>
       </c>
@@ -5552,7 +5577,7 @@
         <v>15321.640221102862</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:5">
       <c r="A252" s="4" t="s">
         <v>65</v>
       </c>
@@ -5569,7 +5594,7 @@
         <v>8071.888705740982</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:5">
       <c r="A253" s="4" t="s">
         <v>103</v>
       </c>
@@ -5586,7 +5611,7 @@
         <v>56303.463884178993</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:5">
       <c r="A254" s="4" t="s">
         <v>34</v>
       </c>
@@ -5603,7 +5628,7 @@
         <v>99878.489208544328</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:5">
       <c r="A255" s="4" t="s">
         <v>56</v>
       </c>
@@ -5620,7 +5645,7 @@
         <v>20724.015271837059</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:5">
       <c r="A256" s="4" t="s">
         <v>68</v>
       </c>
@@ -5637,7 +5662,7 @@
         <v>42536.160419654232</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:5">
       <c r="A257" s="4" t="s">
         <v>99</v>
       </c>
@@ -5654,7 +5679,7 @@
         <v>81440.126698158667</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:5">
       <c r="A258" s="4" t="s">
         <v>86</v>
       </c>
@@ -5671,7 +5696,7 @@
         <v>34311.550425515525</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:5">
       <c r="A259" s="4" t="s">
         <v>96</v>
       </c>
@@ -5688,7 +5713,7 @@
         <v>58998.371642597056</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:5">
       <c r="A260" s="4" t="s">
         <v>106</v>
       </c>
@@ -5705,7 +5730,7 @@
         <v>22991.413647897509</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:5">
       <c r="A261" s="4" t="s">
         <v>83</v>
       </c>
@@ -5722,7 +5747,7 @@
         <v>87834.716668254419</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:5">
       <c r="A262" s="4" t="s">
         <v>64</v>
       </c>
@@ -5739,7 +5764,7 @@
         <v>68606.143553786562</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:5">
       <c r="A263" s="4" t="s">
         <v>0</v>
       </c>
@@ -5756,7 +5781,7 @@
         <v>29852.494536709841</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:5">
       <c r="A264" s="4" t="s">
         <v>111</v>
       </c>
@@ -5773,7 +5798,7 @@
         <v>12875.759802125342</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:5">
       <c r="A265" s="4" t="s">
         <v>124</v>
       </c>
@@ -5790,7 +5815,7 @@
         <v>90142.101779318895</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:5">
       <c r="A266" s="4" t="s">
         <v>42</v>
       </c>
@@ -5807,7 +5832,7 @@
         <v>82466.974497198462</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:5">
       <c r="A267" s="4" t="s">
         <v>2</v>
       </c>
@@ -5824,7 +5849,7 @@
         <v>26125.316839948464</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:5">
       <c r="A268" s="4" t="s">
         <v>11</v>
       </c>
@@ -5841,7 +5866,7 @@
         <v>98199.933992231236</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:5">
       <c r="A269" s="4" t="s">
         <v>34</v>
       </c>
@@ -5858,7 +5883,7 @@
         <v>87566.658774081458</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:5">
       <c r="A270" s="4" t="s">
         <v>37</v>
       </c>
@@ -5875,7 +5900,7 @@
         <v>31229.617607541528</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:5">
       <c r="A271" s="4" t="s">
         <v>104</v>
       </c>
@@ -5892,7 +5917,7 @@
         <v>79937.630132621824</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:5">
       <c r="A272" s="4" t="s">
         <v>122</v>
       </c>
@@ -5909,7 +5934,7 @@
         <v>70309.548159499944</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:5">
       <c r="A273" s="4" t="s">
         <v>76</v>
       </c>
@@ -5926,7 +5951,7 @@
         <v>35669.786881524698</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:5">
       <c r="A274" s="4" t="s">
         <v>4</v>
       </c>
@@ -5943,7 +5968,7 @@
         <v>95019.357662414681</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:5">
       <c r="A275" s="4" t="s">
         <v>6</v>
       </c>
@@ -5960,7 +5985,7 @@
         <v>79888.060674589389</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:5">
       <c r="A276" s="4" t="s">
         <v>66</v>
       </c>
@@ -5977,7 +6002,7 @@
         <v>46537.458896757889</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:5">
       <c r="A277" s="4" t="s">
         <v>45</v>
       </c>
@@ -5994,7 +6019,7 @@
         <v>69285.422211530153</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:5">
       <c r="A278" s="4" t="s">
         <v>63</v>
       </c>
@@ -6011,7 +6036,7 @@
         <v>75681.737828995887</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:5">
       <c r="A279" s="4" t="s">
         <v>118</v>
       </c>
@@ -6028,7 +6053,7 @@
         <v>39497.319482195591</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:5">
       <c r="A280" s="4" t="s">
         <v>40</v>
       </c>
@@ -6045,7 +6070,7 @@
         <v>27992.322568737782</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:5">
       <c r="A281" s="4" t="s">
         <v>94</v>
       </c>
@@ -6062,7 +6087,7 @@
         <v>41023.202205164846</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:5">
       <c r="A282" s="4" t="s">
         <v>101</v>
       </c>
@@ -6079,7 +6104,7 @@
         <v>63169.826009810604</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:5">
       <c r="A283" s="4" t="s">
         <v>1</v>
       </c>
@@ -6096,7 +6121,7 @@
         <v>2299.4875569626647</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:5">
       <c r="A284" s="4" t="s">
         <v>96</v>
       </c>
@@ -6113,7 +6138,7 @@
         <v>10715.216287729401</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:5">
       <c r="A285" s="4" t="s">
         <v>92</v>
       </c>
@@ -6130,7 +6155,7 @@
         <v>17557.085912025184</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:5">
       <c r="A286" s="4" t="s">
         <v>54</v>
       </c>
@@ -6147,7 +6172,7 @@
         <v>28856.189867976067</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:5">
       <c r="A287" s="4" t="s">
         <v>25</v>
       </c>
@@ -6164,7 +6189,7 @@
         <v>55997.710344301369</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:5">
       <c r="A288" s="4" t="s">
         <v>50</v>
       </c>
@@ -6181,7 +6206,7 @@
         <v>34227.703654790144</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:5">
       <c r="A289" s="4" t="s">
         <v>113</v>
       </c>
@@ -6198,7 +6223,7 @@
         <v>19758.961798385953</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:5">
       <c r="A290" s="4" t="s">
         <v>33</v>
       </c>
@@ -6215,7 +6240,7 @@
         <v>99865.211571912369</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:5">
       <c r="A291" s="4" t="s">
         <v>115</v>
       </c>
@@ -6232,7 +6257,7 @@
         <v>37001.906066425508</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:5">
       <c r="A292" s="4" t="s">
         <v>3</v>
       </c>
@@ -6249,7 +6274,7 @@
         <v>86506.424327100161</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:5">
       <c r="A293" s="4" t="s">
         <v>108</v>
       </c>
@@ -6266,7 +6291,7 @@
         <v>64203.065100834436</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:5">
       <c r="A294" s="4" t="s">
         <v>38</v>
       </c>
@@ -6283,7 +6308,7 @@
         <v>95385.949890402495</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:5">
       <c r="A295" s="4" t="s">
         <v>115</v>
       </c>
@@ -6300,7 +6325,7 @@
         <v>53130.246859019368</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:5">
       <c r="A296" s="4" t="s">
         <v>69</v>
       </c>
@@ -6317,7 +6342,7 @@
         <v>5597.4057440128845</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:5">
       <c r="A297" s="4" t="s">
         <v>8</v>
       </c>
@@ -6334,7 +6359,7 @@
         <v>86748.699848403427</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:5">
       <c r="A298" s="4" t="s">
         <v>77</v>
       </c>
@@ -6351,7 +6376,7 @@
         <v>80783.343761081022</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:5">
       <c r="A299" s="4" t="s">
         <v>42</v>
       </c>
@@ -6368,7 +6393,7 @@
         <v>65529.831818781844</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:5">
       <c r="A300" s="4" t="s">
         <v>48</v>
       </c>
@@ -6385,7 +6410,7 @@
         <v>29271.216020855805</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:5">
       <c r="A301" s="4" t="s">
         <v>120</v>
       </c>
@@ -6402,7 +6427,7 @@
         <v>67071.584750754177</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:5">
       <c r="A302" s="4" t="s">
         <v>107</v>
       </c>
@@ -6419,7 +6444,7 @@
         <v>53379.377304386464</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:5">
       <c r="A303" s="4" t="s">
         <v>96</v>
       </c>
@@ -6436,7 +6461,7 @@
         <v>62579.197113061506</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:5">
       <c r="A304" s="4" t="s">
         <v>117</v>
       </c>
@@ -6453,7 +6478,7 @@
         <v>24772.925568189254</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:5">
       <c r="A305" s="4" t="s">
         <v>19</v>
       </c>
@@ -6470,7 +6495,7 @@
         <v>19129.773248817572</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:5">
       <c r="A306" s="4" t="s">
         <v>51</v>
       </c>
@@ -6487,7 +6512,7 @@
         <v>72140.571581141106</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:5">
       <c r="A307" s="4" t="s">
         <v>52</v>
       </c>
@@ -6504,7 +6529,7 @@
         <v>67958.152757360498</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:5">
       <c r="A308" s="4" t="s">
         <v>107</v>
       </c>
@@ -6521,7 +6546,7 @@
         <v>60643.718669159563</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:5">
       <c r="A309" s="4" t="s">
         <v>124</v>
       </c>
@@ -6538,7 +6563,7 @@
         <v>61284.726618473927</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:5">
       <c r="A310" s="4" t="s">
         <v>125</v>
       </c>
@@ -6555,7 +6580,7 @@
         <v>91989.482331512045</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:5">
       <c r="A311" s="4" t="s">
         <v>105</v>
       </c>
@@ -6572,7 +6597,7 @@
         <v>60771.153610060901</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:5">
       <c r="A312" s="4" t="s">
         <v>50</v>
       </c>
@@ -6589,7 +6614,7 @@
         <v>26037.645734014724</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:5">
       <c r="A313" s="4" t="s">
         <v>71</v>
       </c>
@@ -6606,7 +6631,7 @@
         <v>13474.81411608531</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:5">
       <c r="A314" s="4" t="s">
         <v>24</v>
       </c>
@@ -6623,7 +6648,7 @@
         <v>82932.22836949522</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:5">
       <c r="A315" s="4" t="s">
         <v>37</v>
       </c>
@@ -6640,7 +6665,7 @@
         <v>40689.839451198473</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:5">
       <c r="A316" s="4" t="s">
         <v>100</v>
       </c>
@@ -6657,7 +6682,7 @@
         <v>36190.434716837415</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:5">
       <c r="A317" s="4" t="s">
         <v>80</v>
       </c>
@@ -6674,7 +6699,7 @@
         <v>46688.956043537743</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:5">
       <c r="A318" s="4" t="s">
         <v>76</v>
       </c>
@@ -6691,7 +6716,7 @@
         <v>30040.114626924031</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:5">
       <c r="A319" s="4" t="s">
         <v>121</v>
       </c>
@@ -6708,7 +6733,7 @@
         <v>57249.675470779759</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:5">
       <c r="A320" s="4" t="s">
         <v>28</v>
       </c>
@@ -6725,7 +6750,7 @@
         <v>38291.873374592098</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:5">
       <c r="A321" s="4" t="s">
         <v>114</v>
       </c>
@@ -6742,7 +6767,7 @@
         <v>10553.573617395406</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:5">
       <c r="A322" s="4" t="s">
         <v>126</v>
       </c>
@@ -6759,7 +6784,7 @@
         <v>73270.084703512941</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:5">
       <c r="A323" s="4" t="s">
         <v>46</v>
       </c>
@@ -6776,7 +6801,7 @@
         <v>58037.660633320353</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:5">
       <c r="A324" s="4" t="s">
         <v>43</v>
       </c>
@@ -6793,7 +6818,7 @@
         <v>42027.345673509531</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:5">
       <c r="A325" s="4" t="s">
         <v>75</v>
       </c>
@@ -6810,7 +6835,7 @@
         <v>1512.8506210667081</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:5">
       <c r="A326" s="4" t="s">
         <v>121</v>
       </c>
@@ -6827,7 +6852,7 @@
         <v>32609.621203559091</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:5">
       <c r="A327" s="4" t="s">
         <v>10</v>
       </c>
@@ -6844,7 +6869,7 @@
         <v>16079.893758980479</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:5">
       <c r="A328" s="4" t="s">
         <v>39</v>
       </c>
@@ -6861,7 +6886,7 @@
         <v>52398.021721194076</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:5">
       <c r="A329" s="4" t="s">
         <v>76</v>
       </c>
@@ -6878,7 +6903,7 @@
         <v>66041.271600750508</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:5">
       <c r="A330" s="4" t="s">
         <v>67</v>
       </c>
@@ -6895,7 +6920,7 @@
         <v>45504.440342310372</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:5">
       <c r="A331" s="4" t="s">
         <v>60</v>
       </c>
@@ -6912,7 +6937,7 @@
         <v>55364.509390690531</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:5">
       <c r="A332" s="4" t="s">
         <v>89</v>
       </c>
@@ -6929,7 +6954,7 @@
         <v>81415.059191779888</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:5">
       <c r="A333" s="4" t="s">
         <v>94</v>
       </c>
@@ -6946,7 +6971,7 @@
         <v>59929.424564085653</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:5">
       <c r="A334" s="4" t="s">
         <v>57</v>
       </c>
@@ -6963,7 +6988,7 @@
         <v>48057.967068290433</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:5">
       <c r="A335" s="4" t="s">
         <v>125</v>
       </c>
@@ -6980,7 +7005,7 @@
         <v>63168.250056750774</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:5">
       <c r="A336" s="4" t="s">
         <v>127</v>
       </c>
@@ -6997,7 +7022,7 @@
         <v>68917.028280392275</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:5">
       <c r="A337" s="4" t="s">
         <v>40</v>
       </c>
@@ -7014,7 +7039,7 @@
         <v>27359.912920568717</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:5">
       <c r="A338" s="4" t="s">
         <v>72</v>
       </c>
@@ -7031,7 +7056,7 @@
         <v>98235.472710524788</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:5">
       <c r="A339" s="4" t="s">
         <v>91</v>
       </c>
@@ -7048,7 +7073,7 @@
         <v>31708.502262960359</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:5">
       <c r="A340" s="4" t="s">
         <v>62</v>
       </c>
@@ -7065,7 +7090,7 @@
         <v>39710.87430871628</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:5">
       <c r="A341" s="4" t="s">
         <v>32</v>
       </c>
@@ -7082,7 +7107,7 @@
         <v>73977.534340253274</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:5">
       <c r="A342" s="4" t="s">
         <v>122</v>
       </c>
@@ -7099,7 +7124,7 @@
         <v>40581.435495722864</v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:5">
       <c r="A343" s="4" t="s">
         <v>111</v>
       </c>
@@ -7116,7 +7141,7 @@
         <v>58857.779355388571</v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:5">
       <c r="A344" s="4" t="s">
         <v>16</v>
       </c>
@@ -7133,7 +7158,7 @@
         <v>17271.394130486893</v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:5">
       <c r="A345" s="4" t="s">
         <v>102</v>
       </c>
@@ -7150,7 +7175,7 @@
         <v>7711.3254224980055</v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:5">
       <c r="A346" s="4" t="s">
         <v>98</v>
       </c>
@@ -7167,7 +7192,7 @@
         <v>11815.358682802656</v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:5">
       <c r="A347" s="4" t="s">
         <v>116</v>
       </c>
@@ -7184,7 +7209,7 @@
         <v>55590.756564829215</v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:5">
       <c r="A348" s="4" t="s">
         <v>41</v>
       </c>
@@ -7201,7 +7226,7 @@
         <v>83495.398446627485</v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:5">
       <c r="A349" s="4" t="s">
         <v>12</v>
       </c>
@@ -7218,7 +7243,7 @@
         <v>71675.969497926635</v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:5">
       <c r="A350" s="4" t="s">
         <v>45</v>
       </c>
@@ -7235,7 +7260,7 @@
         <v>42792.28346926198</v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:5">
       <c r="A351" s="4" t="s">
         <v>45</v>
       </c>
@@ -7252,7 +7277,7 @@
         <v>44478.410551788103</v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:5">
       <c r="A352" s="4" t="s">
         <v>90</v>
       </c>
@@ -7269,7 +7294,7 @@
         <v>71534.555222165582</v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:5">
       <c r="A353" s="4" t="s">
         <v>88</v>
       </c>
@@ -7286,7 +7311,7 @@
         <v>1255.2468378404958</v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:5">
       <c r="A354" s="4" t="s">
         <v>23</v>
       </c>
@@ -7303,7 +7328,7 @@
         <v>41511.881874147461</v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:5">
       <c r="A355" s="4" t="s">
         <v>87</v>
       </c>
@@ -7320,7 +7345,7 @@
         <v>56897.924731768711</v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:5">
       <c r="A356" s="4" t="s">
         <v>87</v>
       </c>
@@ -7337,7 +7362,7 @@
         <v>72323.543617223957</v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:5">
       <c r="A357" s="4" t="s">
         <v>47</v>
       </c>
@@ -7354,7 +7379,7 @@
         <v>80893.011643939346</v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:5">
       <c r="A358" s="4" t="s">
         <v>103</v>
       </c>
@@ -7371,7 +7396,7 @@
         <v>11247.794614304741</v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:5">
       <c r="A359" s="4" t="s">
         <v>128</v>
       </c>
@@ -7388,7 +7413,7 @@
         <v>89201.682340332889</v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:5">
       <c r="A360" s="4" t="s">
         <v>15</v>
       </c>
@@ -7405,7 +7430,7 @@
         <v>37880.633182900106</v>
       </c>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:5">
       <c r="A361" s="4" t="s">
         <v>118</v>
       </c>
@@ -7422,7 +7447,7 @@
         <v>87068.0536091963</v>
       </c>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:5">
       <c r="A362" s="4" t="s">
         <v>59</v>
       </c>
@@ -7439,7 +7464,7 @@
         <v>82289.521607301212</v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:5">
       <c r="A363" s="4" t="s">
         <v>72</v>
       </c>
@@ -7456,7 +7481,7 @@
         <v>35987.130650557221</v>
       </c>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:5">
       <c r="A364" s="4" t="s">
         <v>52</v>
       </c>
@@ -7473,7 +7498,7 @@
         <v>89068.925597817855</v>
       </c>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:5">
       <c r="A365" s="4" t="s">
         <v>81</v>
       </c>
@@ -7490,7 +7515,7 @@
         <v>83058.673231933892</v>
       </c>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:5">
       <c r="A366" s="4" t="s">
         <v>11</v>
       </c>
@@ -7507,7 +7532,7 @@
         <v>1246.1057659527207</v>
       </c>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:5">
       <c r="A367" s="4" t="s">
         <v>43</v>
       </c>
@@ -7524,7 +7549,7 @@
         <v>57862.687410397681</v>
       </c>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:5">
       <c r="A368" s="4" t="s">
         <v>73</v>
       </c>
@@ -7541,7 +7566,7 @@
         <v>70493.892543089125</v>
       </c>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:5">
       <c r="A369" s="4" t="s">
         <v>68</v>
       </c>
@@ -7558,7 +7583,7 @@
         <v>13243.311492220055</v>
       </c>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:5">
       <c r="A370" s="4" t="s">
         <v>41</v>
       </c>
@@ -7575,7 +7600,7 @@
         <v>88484.975604720399</v>
       </c>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:5">
       <c r="A371" s="4" t="s">
         <v>104</v>
       </c>
@@ -7592,7 +7617,7 @@
         <v>82687.122345534663</v>
       </c>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:5">
       <c r="A372" s="4" t="s">
         <v>49</v>
       </c>
@@ -7609,7 +7634,7 @@
         <v>3158.1913192841871</v>
       </c>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:5">
       <c r="A373" s="4" t="s">
         <v>15</v>
       </c>
@@ -7626,7 +7651,7 @@
         <v>55338.702311697183</v>
       </c>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:5">
       <c r="A374" s="4" t="s">
         <v>5</v>
       </c>
@@ -7643,7 +7668,7 @@
         <v>43355.923235488837</v>
       </c>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:5">
       <c r="A375" s="4" t="s">
         <v>51</v>
       </c>
@@ -7660,7 +7685,7 @@
         <v>9482.6597073668036</v>
       </c>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:5">
       <c r="A376" s="4" t="s">
         <v>13</v>
       </c>
@@ -7677,7 +7702,7 @@
         <v>43002.16347172243</v>
       </c>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:5">
       <c r="A377" s="4" t="s">
         <v>103</v>
       </c>
@@ -7694,7 +7719,7 @@
         <v>24077.818786512362</v>
       </c>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:5">
       <c r="A378" s="4" t="s">
         <v>123</v>
       </c>
@@ -7711,7 +7736,7 @@
         <v>45718.959503279279</v>
       </c>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:5">
       <c r="A379" s="4" t="s">
         <v>75</v>
       </c>
@@ -7728,7 +7753,7 @@
         <v>51693.360717482428</v>
       </c>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:5">
       <c r="A380" s="4" t="s">
         <v>105</v>
       </c>
@@ -7745,26 +7770,26 @@
         <v>66864.306867993262</v>
       </c>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:5">
       <c r="A381" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B381" s="3">
-        <v>123</v>
+        <v>789</v>
       </c>
       <c r="C381" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D381" s="3">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="E381" s="1">
-        <v>54682.868831378692</v>
-      </c>
-    </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
+        <v>881.77438140252252</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5">
       <c r="A382" s="4" t="s">
-        <v>81</v>
+        <v>118</v>
       </c>
       <c r="B382" s="3">
         <v>789</v>
@@ -7773,168 +7798,156 @@
         <v>134</v>
       </c>
       <c r="D382" s="3">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="E382" s="1">
-        <v>881.77438140252252</v>
-      </c>
-    </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
+        <v>76990.365801360444</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5">
       <c r="A383" s="4" t="s">
-        <v>118</v>
+        <v>48</v>
       </c>
       <c r="B383" s="3">
-        <v>789</v>
+        <v>123</v>
       </c>
       <c r="C383" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D383" s="3">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="E383" s="1">
-        <v>76990.365801360444</v>
-      </c>
-    </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
+        <v>35366.490143699404</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5">
       <c r="A384" s="4" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="B384" s="3">
-        <v>123</v>
+        <v>456</v>
       </c>
       <c r="C384" s="3" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D384" s="3">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="E384" s="1">
-        <v>35366.490143699404</v>
-      </c>
-    </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
+        <v>93341.164487398361</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5">
       <c r="A385" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B385" s="3">
+        <v>789</v>
+      </c>
+      <c r="C385" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D385" s="3">
+        <v>2011</v>
+      </c>
+      <c r="E385" s="1">
+        <v>97167.784506557669</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5">
+      <c r="A386" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B386" s="3">
+        <v>123</v>
+      </c>
+      <c r="C386" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D386" s="3">
+        <v>2012</v>
+      </c>
+      <c r="E386" s="1">
+        <v>88884.53521681932</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5">
+      <c r="A387" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B387" s="3">
+        <v>456</v>
+      </c>
+      <c r="C387" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D387" s="3">
+        <v>2013</v>
+      </c>
+      <c r="E387" s="1">
+        <v>79440.290812560823</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5">
+      <c r="A388" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B388" s="3">
+        <v>123</v>
+      </c>
+      <c r="C388" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D388" s="3">
+        <v>2011</v>
+      </c>
+      <c r="E388" s="1">
+        <v>65643.689453656072</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5">
+      <c r="A389" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B389" s="3">
+        <v>456</v>
+      </c>
+      <c r="C389" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D389" s="3">
+        <v>2012</v>
+      </c>
+      <c r="E389" s="1">
+        <v>66247.874868721046</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5">
+      <c r="A390" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B385" s="3">
-        <v>456</v>
-      </c>
-      <c r="C385" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D385" s="3">
-        <v>2013</v>
-      </c>
-      <c r="E385" s="1">
+      <c r="B390" s="3">
+        <v>456</v>
+      </c>
+      <c r="C390" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D390" s="3">
+        <v>2013</v>
+      </c>
+      <c r="E390" s="1">
         <v>93341.164487398361</v>
       </c>
     </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A386" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B386" s="3">
-        <v>789</v>
-      </c>
-      <c r="C386" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="D386" s="3">
-        <v>2011</v>
-      </c>
-      <c r="E386" s="1">
-        <v>97167.784506557669</v>
-      </c>
-    </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A387" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="B387" s="3">
-        <v>123</v>
-      </c>
-      <c r="C387" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="D387" s="3">
-        <v>2012</v>
-      </c>
-      <c r="E387" s="1">
-        <v>88884.53521681932</v>
-      </c>
-    </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A388" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="B388" s="3">
-        <v>456</v>
-      </c>
-      <c r="C388" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D388" s="3">
-        <v>2013</v>
-      </c>
-      <c r="E388" s="1">
-        <v>79440.290812560823</v>
-      </c>
-    </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A389" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B389" s="3">
-        <v>123</v>
-      </c>
-      <c r="C389" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="D389" s="3">
-        <v>2011</v>
-      </c>
-      <c r="E389" s="1">
-        <v>65643.689453656072</v>
-      </c>
-    </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A390" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B390" s="3">
-        <v>456</v>
-      </c>
-      <c r="C390" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D390" s="3">
-        <v>2012</v>
-      </c>
-      <c r="E390" s="1">
-        <v>66247.874868721046</v>
-      </c>
-    </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A391" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B391" s="3">
-        <v>456</v>
-      </c>
-      <c r="C391" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D391" s="3">
-        <v>2013</v>
-      </c>
-      <c r="E391" s="1">
-        <v>3195.699054497647</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:E391"/>
+  <autoFilter ref="A1:E389"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>